--- a/ShoppingAPI/Presentation/ShoppingAPI.API/UpdatedProducts.xlsx
+++ b/ShoppingAPI/Presentation/ShoppingAPI.API/UpdatedProducts.xlsx
@@ -35,70 +35,64 @@
     <x:t>Güncellenme Tarihi</x:t>
   </x:si>
   <x:si>
+    <x:t>heihachi mishima</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.07.2023 11:41:18</x:t>
+  </x:si>
+  <x:si>
     <x:t>HP Pavilion Laptop</x:t>
   </x:si>
   <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21.07.2023 13:18:49</x:t>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1000,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.07.2023 06:39:00</x:t>
   </x:si>
   <x:si>
     <x:t>iPhone 12 Pro</x:t>
   </x:si>
   <x:si>
-    <x:t>38</x:t>
+    <x:t>36</x:t>
   </x:si>
   <x:si>
     <x:t>900,00</x:t>
   </x:si>
   <x:si>
+    <x:t>Nike Air Max 90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.07.2023 06:01:19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>deneme1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50,00</x:t>
+  </x:si>
+  <x:si>
     <x:t>PlayStation 5</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
     <x:t>600,00</x:t>
   </x:si>
   <x:si>
     <x:t>21.07.2023 13:00:48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>deneme1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21.07.2023 12:31:57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nike Air Max 90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21.07.2023 12:16:18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>heihachi mishima</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21.07.2023 07:08:19</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -476,24 +470,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -507,49 +501,49 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ShoppingAPI/Presentation/ShoppingAPI.API/UpdatedProducts.xlsx
+++ b/ShoppingAPI/Presentation/ShoppingAPI.API/UpdatedProducts.xlsx
@@ -35,55 +35,58 @@
     <x:t>Güncellenme Tarihi</x:t>
   </x:si>
   <x:si>
+    <x:t>Nike Air Max 90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.07.2023 13:02:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>deneme1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP Pavilion Laptop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1000,00</x:t>
+  </x:si>
+  <x:si>
     <x:t>heihachi mishima</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
   </x:si>
   <x:si>
+    <x:t>0,00</x:t>
+  </x:si>
+  <x:si>
     <x:t>24.07.2023 11:41:18</x:t>
   </x:si>
   <x:si>
-    <x:t>HP Pavilion Laptop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1000,00</x:t>
+    <x:t>iPhone 12 Pro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>900,00</x:t>
   </x:si>
   <x:si>
     <x:t>24.07.2023 06:39:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>iPhone 12 Pro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>900,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nike Air Max 90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24.07.2023 06:01:19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>deneme1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50,00</x:t>
   </x:si>
   <x:si>
     <x:t>PlayStation 5</x:t>
@@ -470,24 +473,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -501,7 +504,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -529,21 +532,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ShoppingAPI/Presentation/ShoppingAPI.API/UpdatedProducts.xlsx
+++ b/ShoppingAPI/Presentation/ShoppingAPI.API/UpdatedProducts.xlsx
@@ -35,36 +35,66 @@
     <x:t>Güncellenme Tarihi</x:t>
   </x:si>
   <x:si>
+    <x:t>iPhone 12 Pro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.11.2023 16:54:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP Pavilion Laptop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5000,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.11.2023 16:53:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rtyef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.08.2023 15:19:15</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nike Air Max 90</x:t>
   </x:si>
   <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200</x:t>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.07.2023 11:18:21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>deneme1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50,00</x:t>
   </x:si>
   <x:si>
     <x:t>25.07.2023 13:02:41</x:t>
   </x:si>
   <x:si>
-    <x:t>deneme1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP Pavilion Laptop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1000,00</x:t>
-  </x:si>
-  <x:si>
     <x:t>heihachi mishima</x:t>
   </x:si>
   <x:si>
@@ -75,18 +105,6 @@
   </x:si>
   <x:si>
     <x:t>24.07.2023 11:41:18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>iPhone 12 Pro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>900,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24.07.2023 06:39:00</x:t>
   </x:si>
   <x:si>
     <x:t>PlayStation 5</x:t>
@@ -490,63 +508,77 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
